--- a/src/test/resources/products.xlsx
+++ b/src/test/resources/products.xlsx
@@ -50,13 +50,13 @@
     <t>Product A</t>
   </si>
   <si>
-    <t>08/09/2023 01:08</t>
-  </si>
-  <si>
-    <t>2023-09-08</t>
-  </si>
-  <si>
-    <t>2023-09-08T01:08:17.4408755+01:00[Africa/Casablanca]</t>
+    <t>08/09/2023 01:29</t>
+  </si>
+  <si>
+    <t>08 sept. 2023</t>
+  </si>
+  <si>
+    <t>2023-09-08T01:29:06.2081207+01:00[Africa/Casablanca]</t>
   </si>
   <si>
     <t>A</t>

--- a/src/test/resources/products.xlsx
+++ b/src/test/resources/products.xlsx
@@ -50,13 +50,13 @@
     <t>Product A</t>
   </si>
   <si>
-    <t>08/09/2023 01:29</t>
+    <t>08/09/2023 01:32</t>
   </si>
   <si>
     <t>08 sept. 2023</t>
   </si>
   <si>
-    <t>2023-09-08T01:29:06.2081207+01:00[Africa/Casablanca]</t>
+    <t>2023-09-08T01:32:14.9919081+01:00[Africa/Casablanca]</t>
   </si>
   <si>
     <t>A</t>

--- a/src/test/resources/products.xlsx
+++ b/src/test/resources/products.xlsx
@@ -50,13 +50,13 @@
     <t>Product A</t>
   </si>
   <si>
-    <t>08/09/2023 01:32</t>
+    <t>08/09/2023 01:34</t>
   </si>
   <si>
     <t>08 sept. 2023</t>
   </si>
   <si>
-    <t>2023-09-08T01:32:14.9919081+01:00[Africa/Casablanca]</t>
+    <t>2023-09-08T01:34:07.1482443+01:00[Africa/Casablanca]</t>
   </si>
   <si>
     <t>A</t>

--- a/src/test/resources/products.xlsx
+++ b/src/test/resources/products.xlsx
@@ -6,7 +6,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Product-2023-09-08" r:id="rId3" sheetId="1"/>
+    <sheet name="Product-2023-09-09" r:id="rId3" sheetId="1"/>
   </sheets>
 </workbook>
 </file>
@@ -50,13 +50,13 @@
     <t>Product A</t>
   </si>
   <si>
-    <t>08/09/2023 01:34</t>
-  </si>
-  <si>
-    <t>08 sept. 2023</t>
-  </si>
-  <si>
-    <t>2023-09-08T01:34:07.1482443+01:00[Africa/Casablanca]</t>
+    <t>09/09/2023 17:45</t>
+  </si>
+  <si>
+    <t>09 sept. 2023</t>
+  </si>
+  <si>
+    <t>2023-09-09T17:45:19.6415433+01:00[Africa/Casablanca]</t>
   </si>
   <si>
     <t>A</t>

--- a/src/test/resources/products.xlsx
+++ b/src/test/resources/products.xlsx
@@ -50,13 +50,13 @@
     <t>Product A</t>
   </si>
   <si>
-    <t>09/09/2023 17:45</t>
+    <t>09/09/2023 17:59</t>
   </si>
   <si>
     <t>09 sept. 2023</t>
   </si>
   <si>
-    <t>2023-09-09T17:45:19.6415433+01:00[Africa/Casablanca]</t>
+    <t>2023-09-09T17:59:14.0171641+01:00[Africa/Casablanca]</t>
   </si>
   <si>
     <t>A</t>

--- a/src/test/resources/products.xlsx
+++ b/src/test/resources/products.xlsx
@@ -50,13 +50,13 @@
     <t>Product A</t>
   </si>
   <si>
-    <t>09/09/2023 17:59</t>
+    <t>09/09/2023 18:12</t>
   </si>
   <si>
     <t>09 sept. 2023</t>
   </si>
   <si>
-    <t>2023-09-09T17:59:14.0171641+01:00[Africa/Casablanca]</t>
+    <t>2023-09-09T18:12:25.0708549+01:00[Africa/Casablanca]</t>
   </si>
   <si>
     <t>A</t>

--- a/src/test/resources/products.xlsx
+++ b/src/test/resources/products.xlsx
@@ -6,7 +6,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Product-2023-09-09" r:id="rId3" sheetId="1"/>
+    <sheet name="Product-2023-09-10" r:id="rId3" sheetId="1"/>
   </sheets>
 </workbook>
 </file>
@@ -50,13 +50,13 @@
     <t>Product A</t>
   </si>
   <si>
-    <t>09/09/2023 18:12</t>
-  </si>
-  <si>
-    <t>09 sept. 2023</t>
-  </si>
-  <si>
-    <t>2023-09-09T18:12:25.0708549+01:00[Africa/Casablanca]</t>
+    <t>10/09/2023 02:19</t>
+  </si>
+  <si>
+    <t>2023-09-10</t>
+  </si>
+  <si>
+    <t>2023-09-10T02:19:50.0570456+01:00[Africa/Casablanca]</t>
   </si>
   <si>
     <t>A</t>

--- a/src/test/resources/products.xlsx
+++ b/src/test/resources/products.xlsx
@@ -6,13 +6,13 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Product-2023-09-10" r:id="rId3" sheetId="1"/>
+    <sheet name="Product-2023-09-11" r:id="rId3" sheetId="1"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>name</t>
   </si>
@@ -50,22 +50,19 @@
     <t>Product A</t>
   </si>
   <si>
-    <t>10/09/2023 02:19</t>
-  </si>
-  <si>
-    <t>2023-09-10</t>
-  </si>
-  <si>
-    <t>2023-09-10T02:19:50.0570456+01:00[Africa/Casablanca]</t>
-  </si>
-  <si>
-    <t>A</t>
+    <t>11/09/2023 00:33</t>
+  </si>
+  <si>
+    <t>2023-09-11</t>
+  </si>
+  <si>
+    <t>2023-09-11T00:33:09.7899063+01:00[Africa/Casablanca]</t>
+  </si>
+  <si>
+    <t>bb</t>
   </si>
   <si>
     <t>Product B</t>
-  </si>
-  <si>
-    <t>B</t>
   </si>
 </sst>
 </file>
@@ -247,7 +244,7 @@
         <v>14</v>
       </c>
       <c r="K3" t="s" s="0">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/products.xlsx
+++ b/src/test/resources/products.xlsx
@@ -50,13 +50,13 @@
     <t>Product A</t>
   </si>
   <si>
-    <t>11/09/2023 00:33</t>
+    <t>11/09/2023 00:53</t>
   </si>
   <si>
     <t>2023-09-11</t>
   </si>
   <si>
-    <t>2023-09-11T00:33:09.7899063+01:00[Africa/Casablanca]</t>
+    <t>2023-09-11T00:53:03.8363085+01:00[Africa/Casablanca]</t>
   </si>
   <si>
     <t>bb</t>

--- a/src/test/resources/products.xlsx
+++ b/src/test/resources/products.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
   <si>
     <t>name</t>
   </si>
@@ -47,19 +47,25 @@
     <t>category</t>
   </si>
   <si>
+    <t>local date time</t>
+  </si>
+  <si>
     <t>Product A</t>
   </si>
   <si>
-    <t>11/09/2023 00:53</t>
+    <t>11/09/2023 14:39</t>
   </si>
   <si>
     <t>2023-09-11</t>
   </si>
   <si>
-    <t>2023-09-11T00:53:03.8363085+01:00[Africa/Casablanca]</t>
+    <t>2023-09-11T14:39:53.0545017+01:00[Africa/Casablanca]</t>
   </si>
   <si>
     <t>bb</t>
+  </si>
+  <si>
+    <t>2023-09-11T14:39:53.0545017</t>
   </si>
   <si>
     <t>Product B</t>
@@ -123,7 +129,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -140,6 +146,7 @@
     <col min="9" max="9" bestFit="true" customWidth="true" width="13.45703125"/>
     <col min="10" max="10" bestFit="true" customWidth="true" width="52.14453125"/>
     <col min="11" max="11" bestFit="true" customWidth="true" width="9.34765625"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="28.60546875"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -176,10 +183,13 @@
       <c r="K1" t="s" s="1">
         <v>10</v>
       </c>
+      <c r="L1" t="s" s="1">
+        <v>11</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B2" t="n" s="0">
         <v>100.0</v>
@@ -200,21 +210,24 @@
         <v>50.0</v>
       </c>
       <c r="H2" t="s" s="0">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I2" t="s" s="0">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J2" t="s" s="0">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K2" t="s" s="0">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="L2" t="s" s="0">
+        <v>17</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B3" t="n" s="0">
         <v>200.0</v>
@@ -235,16 +248,19 @@
         <v>30.0</v>
       </c>
       <c r="H3" t="s" s="0">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I3" t="s" s="0">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J3" t="s" s="0">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K3" t="s" s="0">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="L3" t="s" s="0">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/products.xlsx
+++ b/src/test/resources/products.xlsx
@@ -53,19 +53,19 @@
     <t>Product A</t>
   </si>
   <si>
-    <t>11/09/2023 14:39</t>
+    <t>11/09/2023 14:57</t>
   </si>
   <si>
     <t>2023-09-11</t>
   </si>
   <si>
-    <t>2023-09-11T14:39:53.0545017+01:00[Africa/Casablanca]</t>
+    <t>2023-09-11T14:57:29.2342794+01:00[Africa/Casablanca]</t>
   </si>
   <si>
     <t>bb</t>
   </si>
   <si>
-    <t>2023-09-11T14:39:53.0545017</t>
+    <t>2023-09-11T14:57:29.2342794</t>
   </si>
   <si>
     <t>Product B</t>

--- a/src/test/resources/products.xlsx
+++ b/src/test/resources/products.xlsx
@@ -6,7 +6,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Product-2023-09-11" r:id="rId3" sheetId="1"/>
+    <sheet name="Product-2023-09-12" r:id="rId3" sheetId="1"/>
   </sheets>
 </workbook>
 </file>
@@ -20,7 +20,7 @@
     <t>price</t>
   </si>
   <si>
-    <t>promo price</t>
+    <t>Promo price</t>
   </si>
   <si>
     <t>min price</t>
@@ -53,19 +53,19 @@
     <t>Product A</t>
   </si>
   <si>
-    <t>11/09/2023 14:57</t>
-  </si>
-  <si>
-    <t>2023-09-11</t>
-  </si>
-  <si>
-    <t>2023-09-11T14:57:29.2342794+01:00[Africa/Casablanca]</t>
+    <t>12/09/2023 00:17</t>
+  </si>
+  <si>
+    <t>2023-09-12</t>
+  </si>
+  <si>
+    <t>2023-09-12T00:17:58.4095525+01:00[Africa/Casablanca]</t>
   </si>
   <si>
     <t>bb</t>
   </si>
   <si>
-    <t>2023-09-11T14:57:29.2342794</t>
+    <t>2023-09-12T00:17:58.4095525</t>
   </si>
   <si>
     <t>Product B</t>
@@ -137,7 +137,7 @@
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="9.8515625"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="5.79296875"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="12.5703125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="12.68359375"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="9.90234375"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="6.68359375"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="8.125"/>

--- a/src/test/resources/products.xlsx
+++ b/src/test/resources/products.xlsx
@@ -53,19 +53,19 @@
     <t>Product A</t>
   </si>
   <si>
-    <t>12/09/2023 00:17</t>
+    <t>12/09/2023 16:03</t>
   </si>
   <si>
     <t>2023-09-12</t>
   </si>
   <si>
-    <t>2023-09-12T00:17:58.4095525+01:00[Africa/Casablanca]</t>
+    <t>2023-09-12T16:03:41.7097986+01:00[Africa/Casablanca]</t>
   </si>
   <si>
     <t>bb</t>
   </si>
   <si>
-    <t>2023-09-12T00:17:58.4095525</t>
+    <t>2023-09-12T16:03:41.7097986</t>
   </si>
   <si>
     <t>Product B</t>

--- a/src/test/resources/products.xlsx
+++ b/src/test/resources/products.xlsx
@@ -12,69 +12,63 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>price</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Price</t>
   </si>
   <si>
     <t>Promo price</t>
   </si>
   <si>
-    <t>min price</t>
-  </si>
-  <si>
-    <t>active</t>
-  </si>
-  <si>
-    <t>expired</t>
-  </si>
-  <si>
-    <t>units in stock</t>
-  </si>
-  <si>
-    <t>created date</t>
-  </si>
-  <si>
-    <t>updated date</t>
-  </si>
-  <si>
-    <t>zoned date time</t>
-  </si>
-  <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>local date time</t>
+    <t>Min price</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>Expired</t>
+  </si>
+  <si>
+    <t>Units in stock</t>
+  </si>
+  <si>
+    <t>Created date</t>
+  </si>
+  <si>
+    <t>Updated date</t>
+  </si>
+  <si>
+    <t>Zoned date time</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Local date time</t>
   </si>
   <si>
     <t>Product A</t>
   </si>
   <si>
-    <t>21/09/2023 13:43</t>
-  </si>
-  <si>
-    <t>2023-09-21</t>
-  </si>
-  <si>
-    <t>2023-09-21T13:43:34.6746603+01:00[Africa/Casablanca]</t>
+    <t>22/09/2023 16:30</t>
+  </si>
+  <si>
+    <t>2023-09-22</t>
+  </si>
+  <si>
+    <t>2023-09-22T16:30:32.4205334+01:00[Africa/Casablanca]</t>
   </si>
   <si>
     <t>bb</t>
   </si>
   <si>
-    <t>2023-09-21T13:43:34.6746603</t>
+    <t>2023-09-22T16:30:32.4205334</t>
   </si>
   <si>
     <t>Product B</t>
-  </si>
-  <si>
-    <t>2023-09-21T13:43:34.6751555+01:00[Africa/Casablanca]</t>
-  </si>
-  <si>
-    <t>2023-09-21T13:43:34.6751555</t>
   </si>
 </sst>
 </file>
@@ -142,7 +136,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="9.8515625"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="5.79296875"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="5.90625"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -250,13 +244,13 @@
         <v>14</v>
       </c>
       <c r="J3" t="s" s="0">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="K3" t="s" s="0">
         <v>16</v>
       </c>
       <c r="L3" t="s" s="0">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/products.xlsx
+++ b/src/test/resources/products.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t>Name</t>
   </si>
@@ -53,22 +53,25 @@
     <t>Product A</t>
   </si>
   <si>
-    <t>22/09/2023 16:30</t>
-  </si>
-  <si>
-    <t>2023-09-22</t>
-  </si>
-  <si>
-    <t>2023-09-22T16:30:32.4205334+01:00[Africa/Casablanca]</t>
+    <t>29/09/2023 12:14</t>
+  </si>
+  <si>
+    <t>2023-09-29</t>
+  </si>
+  <si>
+    <t>2023-09-29T12:14:15.0601768+01:00[Africa/Casablanca]</t>
   </si>
   <si>
     <t>bb</t>
   </si>
   <si>
-    <t>2023-09-22T16:30:32.4205334</t>
+    <t>2023-09-29T12:14:15.0603983</t>
   </si>
   <si>
     <t>Product B</t>
+  </si>
+  <si>
+    <t>2023-09-29T12:14:15.0603983+01:00[Africa/Casablanca]</t>
   </si>
 </sst>
 </file>
@@ -244,7 +247,7 @@
         <v>14</v>
       </c>
       <c r="J3" t="s" s="0">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="K3" t="s" s="0">
         <v>16</v>

--- a/src/test/resources/products.xlsx
+++ b/src/test/resources/products.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
   <si>
     <t>Name</t>
   </si>
@@ -53,25 +53,22 @@
     <t>Product A</t>
   </si>
   <si>
-    <t>29/09/2023 12:14</t>
-  </si>
-  <si>
-    <t>2023-09-29</t>
-  </si>
-  <si>
-    <t>2023-09-29T12:14:15.0601768+01:00[Africa/Casablanca]</t>
+    <t>30/09/2023 13:44</t>
+  </si>
+  <si>
+    <t>2023-09-30</t>
+  </si>
+  <si>
+    <t>2023-09-30T13:44:51.7264819+01:00[Africa/Casablanca]</t>
   </si>
   <si>
     <t>bb</t>
   </si>
   <si>
-    <t>2023-09-29T12:14:15.0603983</t>
+    <t>2023-09-30T13:44:51.7264819</t>
   </si>
   <si>
     <t>Product B</t>
-  </si>
-  <si>
-    <t>2023-09-29T12:14:15.0603983+01:00[Africa/Casablanca]</t>
   </si>
 </sst>
 </file>
@@ -247,7 +244,7 @@
         <v>14</v>
       </c>
       <c r="J3" t="s" s="0">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="K3" t="s" s="0">
         <v>16</v>
